--- a/biology/Zoologie/Bavayia/Bavayia.xlsx
+++ b/biology/Zoologie/Bavayia/Bavayia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bavayia est un genre de geckos de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bavayia est un genre de geckos de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de geckos nocturnes, arboricoles, ayant un aspect trapu.
 </t>
@@ -573,50 +589,52 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 mars 2023)[2] :
-Bavayia ashleyi Bauer et al., 2022[3]
-Bavayia astrongatti Bauer et al., 2022[3]
-Bavayia borealis Bauer et al., 2022[3]
-Bavayia boulinda Bauer et al., 2022[3]
-Bavayia caillou Bauer et al., 2022[3]
-Bavayia campestris Bauer et al., 2022[3]
-Bavayia centralis Bauer et al., 2022[3]
-Bavayia cocoensis Bauer et al., 2022[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 mars 2023) :
+Bavayia ashleyi Bauer et al., 2022
+Bavayia astrongatti Bauer et al., 2022
+Bavayia borealis Bauer et al., 2022
+Bavayia boulinda Bauer et al., 2022
+Bavayia caillou Bauer et al., 2022
+Bavayia campestris Bauer et al., 2022
+Bavayia centralis Bauer et al., 2022
+Bavayia cocoensis Bauer et al., 2022
 Bavayia crassicollis Roux, 1913
 Bavayia cyclura (Günther, 1872)
-Bavayia endemia Bauer et al., 2022[3]
+Bavayia endemia Bauer et al., 2022
 Bavayia exsuccida Bauer et al., 1998
 Bavayia geitaina Wright et al., 2000
 Bavayia goroensis Bauer et al., 2008
-Bavayia insularis Bauer et al., 2022[3]
-Bavayia jourdani Bauer et al., 2022[3]
-Bavayia kanaky Bauer et al., 2022[3]
-Bavayia koniambo Bauer et al., 2022[3]
-Bavayia kopeto Bauer et al., 2022[3]
-Bavayia kunyie Bauer et al., 2022[3]
-Bavayia lepredourensis Bauer et al., 2022[3]
-Bavayia loyaltiensis Bauer et al., 2022[4]
-Bavayia mandjeliensis Bauer et al., 2022[3]
-Bavayia menazi Bauer et al., 2022[3]
+Bavayia insularis Bauer et al., 2022
+Bavayia jourdani Bauer et al., 2022
+Bavayia kanaky Bauer et al., 2022
+Bavayia koniambo Bauer et al., 2022
+Bavayia kopeto Bauer et al., 2022
+Bavayia kunyie Bauer et al., 2022
+Bavayia lepredourensis Bauer et al., 2022
+Bavayia loyaltiensis Bauer et al., 2022
+Bavayia mandjeliensis Bauer et al., 2022
+Bavayia menazi Bauer et al., 2022
 Bavayia montana Roux, 1913
-Bavayia nehoueensis Bauer et al., 2022[3]
+Bavayia nehoueensis Bauer et al., 2022
 Bavayia nubila Bauer et al., 2012
-Bavayia occidentalis Bauer et al., 2022[3]
+Bavayia occidentalis Bauer et al., 2022
 Bavayia ornata Roux, 1913
-Bavayia periclitata Bauer et al., 2022[3]
+Bavayia periclitata Bauer et al., 2022
 Bavayia pulchella Bauer et al., 1998
-Bavayia renevierorum Bauer et al., 2022[3]
-Bavayia rhizophora Bauer et al., 2022[3]
+Bavayia renevierorum Bauer et al., 2022
+Bavayia rhizophora Bauer et al., 2022
 Bavayia robusta Wright et al., 2000
 Bavayia sauvagii (Boulenger, 1883)
 Bavayia septuiclavis Sadlier, 1989
-Bavayia stephenparki Bauer et al., 2022[3]
-Bavayia tanleensis Bauer et al., 2022[3]
-Bavayia tchingou Bauer et al., 2022[3]
-Bavayia ultramaficola Bauer et al., 2022[3]
-Bavayia whitakeri Bauer et al., 2022[3]</t>
+Bavayia stephenparki Bauer et al., 2022
+Bavayia tanleensis Bauer et al., 2022
+Bavayia tchingou Bauer et al., 2022
+Bavayia ultramaficola Bauer et al., 2022
+Bavayia whitakeri Bauer et al., 2022</t>
         </is>
       </c>
     </row>
@@ -644,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roux, 1913 : Les reptiles de la Nouvelle-Calédonie et des îles Loyalty. Nova Caledonia, Recherches scientifiques en Nouvelle-Calédonie et aux Iles Loyalty. Zoologie. vol. 1, L. 2, Sarasin &amp; Roux, C.W. Kreidel’s Verlag, Wiesbaden, vol. 1, p. 79-160 (texte intégral).</t>
         </is>
